--- a/database/raw_data/realtion_db/좋은제약_실적자료_윤하은_2.xlsx
+++ b/database/raw_data/realtion_db/좋은제약_실적자료_윤하은_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kdy\Projects\Project_SK_5\Storage_docs\raw_data_enhanced\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kdy\Projects\Narutalk_V003\beta_v0031\database\raw_data\realtion_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EA784D-48C6-4E7B-A3BF-BABADE46EA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0A32D4-FD64-4009-8A57-D64BFD8CB496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="26880" windowWidth="29040" windowHeight="15720" xr2:uid="{951E1A94-8CE4-4455-8951-287FCB5773D3}"/>
+    <workbookView xWindow="3190" yWindow="9580" windowWidth="21600" windowHeight="12670" xr2:uid="{951E1A94-8CE4-4455-8951-287FCB5773D3}"/>
   </bookViews>
   <sheets>
     <sheet name="좋은제약_실적자료_윤하은_수정본_감소" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="197">
   <si>
     <t>담당자</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
   <si>
     <t>품목</t>
@@ -614,6 +611,9 @@
   </si>
   <si>
     <t>엔코아내과의원</t>
+  </si>
+  <si>
+    <t>거래처ID</t>
   </si>
 </sst>
 </file>
@@ -1591,7 +1591,7 @@
   <dimension ref="A1:AB376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1602,16 +1602,16 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
       <c r="E1">
         <v>202212</v>
@@ -1688,16 +1688,16 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
       </c>
       <c r="E2">
         <v>47427</v>
@@ -1774,16 +1774,16 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>66108</v>
@@ -1860,16 +1860,16 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>1166234</v>
@@ -1946,16 +1946,16 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>1323</v>
@@ -2032,16 +2032,16 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>2217</v>
@@ -2118,16 +2118,16 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>9572</v>
@@ -2204,16 +2204,16 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>8107</v>
@@ -2290,16 +2290,16 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2376,16 +2376,16 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>931</v>
@@ -2462,16 +2462,16 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>14530</v>
@@ -2548,16 +2548,16 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>34948</v>
@@ -2634,16 +2634,16 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>12740</v>
@@ -2720,16 +2720,16 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2806,16 +2806,16 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2892,16 +2892,16 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" t="s">
         <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2978,16 +2978,16 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>5274</v>
@@ -3064,16 +3064,16 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>342</v>
@@ -3150,16 +3150,16 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3236,16 +3236,16 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <v>81665</v>
@@ -3322,16 +3322,16 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3408,16 +3408,16 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22">
         <v>400260</v>
@@ -3494,16 +3494,16 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>23248</v>
@@ -3580,16 +3580,16 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>14880</v>
@@ -3666,16 +3666,16 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <v>4156</v>
@@ -3752,16 +3752,16 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>15337</v>
@@ -3838,16 +3838,16 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>11816</v>
@@ -3924,16 +3924,16 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>836</v>
@@ -4010,16 +4010,16 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>4153</v>
@@ -4096,16 +4096,16 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>9802</v>
@@ -4182,16 +4182,16 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4268,16 +4268,16 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>123028</v>
@@ -4354,16 +4354,16 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -4440,16 +4440,16 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
         <v>195</v>
       </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>196</v>
-      </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>16026</v>
@@ -4526,16 +4526,16 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35">
         <v>4017</v>
@@ -4612,16 +4612,16 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E36">
         <v>10159</v>
@@ -4698,16 +4698,16 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37">
         <v>17233</v>
@@ -4784,16 +4784,16 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>1238</v>
@@ -4870,16 +4870,16 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39">
         <v>385981</v>
@@ -4956,16 +4956,16 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40">
         <v>34267</v>
@@ -5042,16 +5042,16 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -5128,16 +5128,16 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E42">
         <v>2390</v>
@@ -5214,16 +5214,16 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43">
         <v>1302</v>
@@ -5300,16 +5300,16 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>3515</v>
@@ -5386,16 +5386,16 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45">
         <v>74315</v>
@@ -5472,16 +5472,16 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46">
         <v>12010</v>
@@ -5558,16 +5558,16 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -5644,16 +5644,16 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -5730,16 +5730,16 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E49">
         <v>6409</v>
@@ -5816,16 +5816,16 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50">
         <v>399897</v>
@@ -5902,16 +5902,16 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E51">
         <v>203153</v>
@@ -5988,16 +5988,16 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E52">
         <v>54930</v>
@@ -6074,16 +6074,16 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E53">
         <v>243757</v>
@@ -6160,16 +6160,16 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E54">
         <v>95179</v>
@@ -6246,16 +6246,16 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E55">
         <v>205360</v>
@@ -6332,16 +6332,16 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E56">
         <v>11420</v>
@@ -6418,16 +6418,16 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E57">
         <v>53136</v>
@@ -6504,16 +6504,16 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E58">
         <v>135488</v>
@@ -6590,16 +6590,16 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E59">
         <v>242212</v>
@@ -6676,16 +6676,16 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60">
         <v>33247</v>
@@ -6762,16 +6762,16 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E61">
         <v>4880</v>
@@ -6848,16 +6848,16 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E62">
         <v>1016</v>
@@ -6934,16 +6934,16 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E63">
         <v>5317</v>
@@ -7020,16 +7020,16 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E64">
         <v>205049</v>
@@ -7106,16 +7106,16 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E65">
         <v>651185</v>
@@ -7192,16 +7192,16 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -7278,16 +7278,16 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E67">
         <v>17457</v>
@@ -7364,16 +7364,16 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -7450,16 +7450,16 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E69">
         <v>41620</v>
@@ -7536,16 +7536,16 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E70">
         <v>958836</v>
@@ -7622,16 +7622,16 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E71">
         <v>13577</v>
@@ -7708,16 +7708,16 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E72">
         <v>10486</v>
@@ -7794,16 +7794,16 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -7880,16 +7880,16 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -7966,16 +7966,16 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E75">
         <v>3432</v>
@@ -8052,16 +8052,16 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -8138,16 +8138,16 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E77">
         <v>476</v>
@@ -8224,16 +8224,16 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -8310,16 +8310,16 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E79">
         <v>985</v>
@@ -8396,16 +8396,16 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -8482,16 +8482,16 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -8568,16 +8568,16 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E82">
         <v>30702</v>
@@ -8654,16 +8654,16 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -8740,16 +8740,16 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E84">
         <v>17341</v>
@@ -8826,16 +8826,16 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E85">
         <v>2235</v>
@@ -8912,16 +8912,16 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E86">
         <v>61207</v>
@@ -8998,16 +8998,16 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E87">
         <v>8651</v>
@@ -9084,16 +9084,16 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -9170,16 +9170,16 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E89">
         <v>998</v>
@@ -9256,16 +9256,16 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E90">
         <v>722</v>
@@ -9342,16 +9342,16 @@
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E91">
         <v>6179</v>
@@ -9428,16 +9428,16 @@
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E92">
         <v>1179</v>
@@ -9514,16 +9514,16 @@
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>137</v>
+      </c>
+      <c r="D93" t="s">
         <v>3</v>
-      </c>
-      <c r="C93" t="s">
-        <v>138</v>
-      </c>
-      <c r="D93" t="s">
-        <v>4</v>
       </c>
       <c r="E93">
         <v>66944</v>
@@ -9600,16 +9600,16 @@
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -9686,16 +9686,16 @@
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E95">
         <v>1377066</v>
@@ -9772,16 +9772,16 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E96">
         <v>1516</v>
@@ -9858,16 +9858,16 @@
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E97">
         <v>3535</v>
@@ -9944,16 +9944,16 @@
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -10030,16 +10030,16 @@
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E99">
         <v>2407</v>
@@ -10116,16 +10116,16 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E100">
         <v>3240</v>
@@ -10202,16 +10202,16 @@
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D101" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E101">
         <v>742</v>
@@ -10288,16 +10288,16 @@
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E102">
         <v>416</v>
@@ -10374,16 +10374,16 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E103">
         <v>5806</v>
@@ -10460,16 +10460,16 @@
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E104">
         <v>5607</v>
@@ -10546,16 +10546,16 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E105">
         <v>5741</v>
@@ -10632,16 +10632,16 @@
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E106">
         <v>43381</v>
@@ -10718,16 +10718,16 @@
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -10804,16 +10804,16 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E108">
         <v>10554</v>
@@ -10890,16 +10890,16 @@
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D109" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E109">
         <v>600022</v>
@@ -10976,16 +10976,16 @@
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D110" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E110">
         <v>198604</v>
@@ -11062,16 +11062,16 @@
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E111">
         <v>350971</v>
@@ -11148,16 +11148,16 @@
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E112">
         <v>84659</v>
@@ -11234,16 +11234,16 @@
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E113">
         <v>6367</v>
@@ -11320,16 +11320,16 @@
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E114">
         <v>8043</v>
@@ -11406,16 +11406,16 @@
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B115" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" t="s">
+        <v>141</v>
+      </c>
+      <c r="D115" t="s">
         <v>3</v>
-      </c>
-      <c r="C115" t="s">
-        <v>142</v>
-      </c>
-      <c r="D115" t="s">
-        <v>4</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -11492,16 +11492,16 @@
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E116">
         <v>34636</v>
@@ -11578,16 +11578,16 @@
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E117">
         <v>18313</v>
@@ -11664,16 +11664,16 @@
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B118" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E118">
         <v>10477</v>
@@ -11750,16 +11750,16 @@
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C119" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E119">
         <v>9076</v>
@@ -11836,16 +11836,16 @@
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E120">
         <v>16494</v>
@@ -11922,16 +11922,16 @@
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B121" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E121">
         <v>1751</v>
@@ -12008,16 +12008,16 @@
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E122">
         <v>22278</v>
@@ -12094,16 +12094,16 @@
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E123">
         <v>72074</v>
@@ -12180,16 +12180,16 @@
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B124" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -12266,16 +12266,16 @@
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E125">
         <v>8829</v>
@@ -12352,16 +12352,16 @@
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E126">
         <v>12080</v>
@@ -12438,16 +12438,16 @@
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B127" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -12524,16 +12524,16 @@
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B128" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E128">
         <v>815</v>
@@ -12610,16 +12610,16 @@
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B129" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D129" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E129">
         <v>19112</v>
@@ -12696,16 +12696,16 @@
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B130" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E130">
         <v>49141</v>
@@ -12782,16 +12782,16 @@
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E131">
         <v>12556</v>
@@ -12868,16 +12868,16 @@
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B132" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -12954,16 +12954,16 @@
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B133" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -13040,16 +13040,16 @@
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B134" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E134">
         <v>12696</v>
@@ -13126,16 +13126,16 @@
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B135" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E135">
         <v>6343</v>
@@ -13212,16 +13212,16 @@
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B136" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E136">
         <v>1222</v>
@@ -13298,16 +13298,16 @@
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B137" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D137" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E137">
         <v>74652</v>
@@ -13384,16 +13384,16 @@
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B138" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E138">
         <v>4543</v>
@@ -13470,16 +13470,16 @@
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" t="s">
+        <v>149</v>
+      </c>
+      <c r="D139" t="s">
         <v>3</v>
-      </c>
-      <c r="C139" t="s">
-        <v>150</v>
-      </c>
-      <c r="D139" t="s">
-        <v>4</v>
       </c>
       <c r="E139">
         <v>7747</v>
@@ -13556,16 +13556,16 @@
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B140" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E140">
         <v>3844774</v>
@@ -13642,16 +13642,16 @@
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E141">
         <v>101301</v>
@@ -13728,16 +13728,16 @@
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B142" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C142" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E142">
         <v>119959</v>
@@ -13814,16 +13814,16 @@
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B143" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D143" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E143">
         <v>38845</v>
@@ -13900,16 +13900,16 @@
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B144" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C144" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E144">
         <v>15737</v>
@@ -13986,16 +13986,16 @@
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B145" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E145">
         <v>15596</v>
@@ -14072,16 +14072,16 @@
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B146" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D146" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E146">
         <v>127798</v>
@@ -14158,16 +14158,16 @@
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B147" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C147" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E147">
         <v>23995</v>
@@ -14244,16 +14244,16 @@
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B148" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D148" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E148">
         <v>3682</v>
@@ -14330,16 +14330,16 @@
     </row>
     <row r="149" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B149" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E149">
         <v>31202</v>
@@ -14416,16 +14416,16 @@
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B150" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C150" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D150" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E150">
         <v>95775</v>
@@ -14502,16 +14502,16 @@
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B151" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E151">
         <v>3279</v>
@@ -14588,16 +14588,16 @@
     </row>
     <row r="152" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B152" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C152" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D152" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E152">
         <v>15628</v>
@@ -14674,16 +14674,16 @@
     </row>
     <row r="153" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B153" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E153">
         <v>14785</v>
@@ -14760,16 +14760,16 @@
     </row>
     <row r="154" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B154" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D154" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E154">
         <v>1591</v>
@@ -14846,16 +14846,16 @@
     </row>
     <row r="155" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B155" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C155" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D155" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E155">
         <v>300654</v>
@@ -14932,16 +14932,16 @@
     </row>
     <row r="156" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B156" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E156">
         <v>51689</v>
@@ -15018,16 +15018,16 @@
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B157" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C157" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D157" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -15104,16 +15104,16 @@
     </row>
     <row r="158" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B158" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C158" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D158" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E158">
         <v>2456</v>
@@ -15190,16 +15190,16 @@
     </row>
     <row r="159" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B159" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E159">
         <v>1513</v>
@@ -15276,16 +15276,16 @@
     </row>
     <row r="160" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B160" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C160" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D160" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E160">
         <v>7273</v>
@@ -15362,16 +15362,16 @@
     </row>
     <row r="161" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B161" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C161" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D161" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E161">
         <v>110247</v>
@@ -15448,16 +15448,16 @@
     </row>
     <row r="162" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B162" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D162" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E162">
         <v>18086</v>
@@ -15534,16 +15534,16 @@
     </row>
     <row r="163" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B163" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C163" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D163" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -15620,16 +15620,16 @@
     </row>
     <row r="164" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B164" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C164" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D164" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -15706,16 +15706,16 @@
     </row>
     <row r="165" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B165" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C165" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E165">
         <v>5472</v>
@@ -15792,16 +15792,16 @@
     </row>
     <row r="166" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B166" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E166">
         <v>504739</v>
@@ -15878,16 +15878,16 @@
     </row>
     <row r="167" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B167" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C167" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E167">
         <v>147195</v>
@@ -15964,16 +15964,16 @@
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B168" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D168" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E168">
         <v>51436</v>
@@ -16050,16 +16050,16 @@
     </row>
     <row r="169" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B169" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C169" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D169" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E169">
         <v>238140</v>
@@ -16136,16 +16136,16 @@
     </row>
     <row r="170" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B170" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C170" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D170" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E170">
         <v>128081</v>
@@ -16222,16 +16222,16 @@
     </row>
     <row r="171" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B171" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C171" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D171" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E171">
         <v>253663</v>
@@ -16308,16 +16308,16 @@
     </row>
     <row r="172" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B172" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E172">
         <v>11405</v>
@@ -16394,16 +16394,16 @@
     </row>
     <row r="173" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B173" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D173" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E173">
         <v>57731</v>
@@ -16480,16 +16480,16 @@
     </row>
     <row r="174" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B174" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C174" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D174" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E174">
         <v>154626</v>
@@ -16566,16 +16566,16 @@
     </row>
     <row r="175" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B175" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C175" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D175" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E175">
         <v>177257</v>
@@ -16652,16 +16652,16 @@
     </row>
     <row r="176" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B176" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C176" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E176">
         <v>27246</v>
@@ -16738,16 +16738,16 @@
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B177" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C177" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D177" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E177">
         <v>8231</v>
@@ -16824,16 +16824,16 @@
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B178" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C178" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E178">
         <v>1574</v>
@@ -16910,16 +16910,16 @@
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B179" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C179" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E179">
         <v>6090</v>
@@ -16996,16 +16996,16 @@
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B180" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E180">
         <v>289036</v>
@@ -17082,16 +17082,16 @@
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B181" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C181" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E181">
         <v>954187</v>
@@ -17168,16 +17168,16 @@
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B182" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C182" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -17254,16 +17254,16 @@
     </row>
     <row r="183" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B183" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C183" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D183" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E183">
         <v>29536</v>
@@ -17340,16 +17340,16 @@
     </row>
     <row r="184" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B184" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D184" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -17426,16 +17426,16 @@
     </row>
     <row r="185" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B185" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C185" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D185" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E185">
         <v>79406</v>
@@ -17512,16 +17512,16 @@
     </row>
     <row r="186" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B186" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C186" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D186" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E186">
         <v>1477127</v>
@@ -17598,16 +17598,16 @@
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B187" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C187" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E187">
         <v>15980</v>
@@ -17684,16 +17684,16 @@
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B188" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D188" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E188">
         <v>10085</v>
@@ -17770,16 +17770,16 @@
     </row>
     <row r="189" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B189" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C189" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D189" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E189">
         <v>1285576</v>
@@ -17856,16 +17856,16 @@
     </row>
     <row r="190" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B190" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C190" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D190" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E190">
         <v>97966</v>
@@ -17942,16 +17942,16 @@
     </row>
     <row r="191" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C191" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -18028,16 +18028,16 @@
     </row>
     <row r="192" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C192" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D192" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E192">
         <v>193625</v>
@@ -18114,16 +18114,16 @@
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C193" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D193" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -18200,16 +18200,16 @@
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D194" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -18286,16 +18286,16 @@
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D195" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -18372,16 +18372,16 @@
     </row>
     <row r="196" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C196" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D196" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E196">
         <v>69466</v>
@@ -18458,16 +18458,16 @@
     </row>
     <row r="197" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B197" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C197" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D197" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E197">
         <v>66353</v>
@@ -18544,16 +18544,16 @@
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B198" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C198" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D198" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E198">
         <v>6237</v>
@@ -18630,16 +18630,16 @@
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B199" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C199" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D199" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -18716,16 +18716,16 @@
     </row>
     <row r="200" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B200" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C200" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D200" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E200">
         <v>32156</v>
@@ -18802,16 +18802,16 @@
     </row>
     <row r="201" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B201" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D201" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E201">
         <v>256187</v>
@@ -18888,16 +18888,16 @@
     </row>
     <row r="202" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B202" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C202" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D202" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E202">
         <v>1002368</v>
@@ -18974,16 +18974,16 @@
     </row>
     <row r="203" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B203" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C203" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D203" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E203">
         <v>43889</v>
@@ -19060,16 +19060,16 @@
     </row>
     <row r="204" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B204" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C204" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D204" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -19146,16 +19146,16 @@
     </row>
     <row r="205" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B205" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C205" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D205" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -19232,16 +19232,16 @@
     </row>
     <row r="206" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B206" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C206" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D206" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E206">
         <v>1339089</v>
@@ -19318,16 +19318,16 @@
     </row>
     <row r="207" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B207" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C207" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D207" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E207">
         <v>374660</v>
@@ -19404,16 +19404,16 @@
     </row>
     <row r="208" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B208" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C208" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D208" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E208">
         <v>5979</v>
@@ -19490,16 +19490,16 @@
     </row>
     <row r="209" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B209" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C209" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D209" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E209">
         <v>269822</v>
@@ -19576,16 +19576,16 @@
     </row>
     <row r="210" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B210" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C210" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D210" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -19662,16 +19662,16 @@
     </row>
     <row r="211" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B211" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C211" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D211" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E211">
         <v>540</v>
@@ -19748,16 +19748,16 @@
     </row>
     <row r="212" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B212" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C212" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D212" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E212">
         <v>43107</v>
@@ -19834,16 +19834,16 @@
     </row>
     <row r="213" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B213" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C213" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D213" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E213">
         <v>90904</v>
@@ -19920,16 +19920,16 @@
     </row>
     <row r="214" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B214" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C214" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D214" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E214">
         <v>200697</v>
@@ -20006,16 +20006,16 @@
     </row>
     <row r="215" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B215" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C215" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D215" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -20092,16 +20092,16 @@
     </row>
     <row r="216" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B216" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C216" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D216" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E216">
         <v>8978</v>
@@ -20178,16 +20178,16 @@
     </row>
     <row r="217" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B217" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C217" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D217" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E217">
         <v>7846</v>
@@ -20264,16 +20264,16 @@
     </row>
     <row r="218" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B218" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C218" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D218" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E218">
         <v>23194</v>
@@ -20350,16 +20350,16 @@
     </row>
     <row r="219" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B219" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C219" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D219" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E219">
         <v>36755</v>
@@ -20436,16 +20436,16 @@
     </row>
     <row r="220" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B220" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C220" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D220" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -20522,16 +20522,16 @@
     </row>
     <row r="221" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B221" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C221" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D221" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E221">
         <v>13572</v>
@@ -20608,16 +20608,16 @@
     </row>
     <row r="222" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B222" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C222" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D222" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -20694,16 +20694,16 @@
     </row>
     <row r="223" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B223" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C223" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D223" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -20780,16 +20780,16 @@
     </row>
     <row r="224" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B224" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C224" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D224" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -20866,16 +20866,16 @@
     </row>
     <row r="225" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B225" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C225" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D225" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -20952,16 +20952,16 @@
     </row>
     <row r="226" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B226" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C226" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D226" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -21038,16 +21038,16 @@
     </row>
     <row r="227" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B227" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C227" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D227" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -21124,16 +21124,16 @@
     </row>
     <row r="228" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B228" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C228" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D228" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -21210,16 +21210,16 @@
     </row>
     <row r="229" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B229" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C229" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D229" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -21296,16 +21296,16 @@
     </row>
     <row r="230" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B230" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C230" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D230" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -21382,16 +21382,16 @@
     </row>
     <row r="231" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B231" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C231" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D231" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -21468,16 +21468,16 @@
     </row>
     <row r="232" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B232" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C232" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D232" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -21554,16 +21554,16 @@
     </row>
     <row r="233" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B233" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C233" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D233" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -21640,16 +21640,16 @@
     </row>
     <row r="234" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B234" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C234" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D234" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -21726,16 +21726,16 @@
     </row>
     <row r="235" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B235" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C235" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D235" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -21812,16 +21812,16 @@
     </row>
     <row r="236" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B236" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C236" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D236" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E236">
         <v>41104</v>
@@ -21898,16 +21898,16 @@
     </row>
     <row r="237" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B237" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C237" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D237" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E237">
         <v>284005</v>
@@ -21984,16 +21984,16 @@
     </row>
     <row r="238" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B238" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C238" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D238" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E238">
         <v>9399</v>
@@ -22070,16 +22070,16 @@
     </row>
     <row r="239" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B239" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C239" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D239" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E239">
         <v>811</v>
@@ -22156,16 +22156,16 @@
     </row>
     <row r="240" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B240" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C240" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D240" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E240">
         <v>20206</v>
@@ -22242,16 +22242,16 @@
     </row>
     <row r="241" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B241" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C241" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D241" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E241">
         <v>2291</v>
@@ -22328,16 +22328,16 @@
     </row>
     <row r="242" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B242" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C242" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D242" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -22414,16 +22414,16 @@
     </row>
     <row r="243" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B243" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C243" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D243" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -22500,16 +22500,16 @@
     </row>
     <row r="244" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B244" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C244" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D244" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -22586,16 +22586,16 @@
     </row>
     <row r="245" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B245" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C245" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D245" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E245">
         <v>36681</v>
@@ -22672,16 +22672,16 @@
     </row>
     <row r="246" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B246" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C246" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D246" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E246">
         <v>217509</v>
@@ -22758,16 +22758,16 @@
     </row>
     <row r="247" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B247" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C247" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D247" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E247">
         <v>405953</v>
@@ -22844,16 +22844,16 @@
     </row>
     <row r="248" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B248" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C248" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D248" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -22930,16 +22930,16 @@
     </row>
     <row r="249" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B249" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C249" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D249" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E249">
         <v>32598</v>
@@ -23016,16 +23016,16 @@
     </row>
     <row r="250" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B250" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C250" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D250" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E250">
         <v>514</v>
@@ -23102,16 +23102,16 @@
     </row>
     <row r="251" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B251" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C251" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D251" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -23188,16 +23188,16 @@
     </row>
     <row r="252" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B252" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C252" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D252" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -23274,16 +23274,16 @@
     </row>
     <row r="253" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B253" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C253" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D253" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E253">
         <v>120493</v>
@@ -23360,16 +23360,16 @@
     </row>
     <row r="254" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B254" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C254" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D254" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -23446,16 +23446,16 @@
     </row>
     <row r="255" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B255" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C255" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D255" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E255">
         <v>7453</v>
@@ -23532,16 +23532,16 @@
     </row>
     <row r="256" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B256" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C256" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D256" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E256">
         <v>21770</v>
@@ -23618,16 +23618,16 @@
     </row>
     <row r="257" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B257" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C257" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D257" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E257">
         <v>97362</v>
@@ -23704,16 +23704,16 @@
     </row>
     <row r="258" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B258" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C258" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D258" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -23790,16 +23790,16 @@
     </row>
     <row r="259" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B259" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C259" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D259" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E259">
         <v>5256</v>
@@ -23876,16 +23876,16 @@
     </row>
     <row r="260" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B260" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C260" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D260" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E260">
         <v>6394</v>
@@ -23962,16 +23962,16 @@
     </row>
     <row r="261" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B261" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C261" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D261" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E261">
         <v>3866</v>
@@ -24048,16 +24048,16 @@
     </row>
     <row r="262" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B262" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C262" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D262" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E262">
         <v>1078</v>
@@ -24134,16 +24134,16 @@
     </row>
     <row r="263" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B263" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C263" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D263" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E263">
         <v>45365</v>
@@ -24220,16 +24220,16 @@
     </row>
     <row r="264" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B264" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C264" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D264" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -24306,16 +24306,16 @@
     </row>
     <row r="265" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B265" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C265" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D265" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -24392,16 +24392,16 @@
     </row>
     <row r="266" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B266" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C266" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D266" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -24478,16 +24478,16 @@
     </row>
     <row r="267" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B267" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C267" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D267" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -24564,16 +24564,16 @@
     </row>
     <row r="268" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B268" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C268" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D268" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -24650,16 +24650,16 @@
     </row>
     <row r="269" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B269" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C269" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D269" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E269">
         <v>32940</v>
@@ -24736,16 +24736,16 @@
     </row>
     <row r="270" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B270" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C270" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D270" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -24822,16 +24822,16 @@
     </row>
     <row r="271" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B271" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C271" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D271" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E271">
         <v>44138</v>
@@ -24908,16 +24908,16 @@
     </row>
     <row r="272" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B272" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C272" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D272" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E272">
         <v>1161</v>
@@ -24994,16 +24994,16 @@
     </row>
     <row r="273" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B273" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C273" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D273" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -25080,16 +25080,16 @@
     </row>
     <row r="274" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B274" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C274" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D274" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -25166,16 +25166,16 @@
     </row>
     <row r="275" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B275" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C275" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D275" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E275">
         <v>180610</v>
@@ -25252,16 +25252,16 @@
     </row>
     <row r="276" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B276" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C276" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D276" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E276">
         <v>57696</v>
@@ -25338,16 +25338,16 @@
     </row>
     <row r="277" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B277" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C277" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D277" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E277">
         <v>48512</v>
@@ -25424,16 +25424,16 @@
     </row>
     <row r="278" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B278" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C278" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D278" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E278">
         <v>6248</v>
@@ -25510,16 +25510,16 @@
     </row>
     <row r="279" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B279" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C279" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D279" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -25596,16 +25596,16 @@
     </row>
     <row r="280" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B280" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C280" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D280" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E280">
         <v>438674</v>
@@ -25682,16 +25682,16 @@
     </row>
     <row r="281" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B281" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C281" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D281" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E281">
         <v>380834</v>
@@ -25768,16 +25768,16 @@
     </row>
     <row r="282" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B282" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C282" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D282" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E282">
         <v>312929</v>
@@ -25854,16 +25854,16 @@
     </row>
     <row r="283" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B283" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C283" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D283" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E283">
         <v>245198</v>
@@ -25940,16 +25940,16 @@
     </row>
     <row r="284" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B284" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C284" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D284" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E284">
         <v>408661</v>
@@ -26026,16 +26026,16 @@
     </row>
     <row r="285" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B285" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C285" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D285" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E285">
         <v>4168</v>
@@ -26112,16 +26112,16 @@
     </row>
     <row r="286" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B286" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C286" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D286" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E286">
         <v>22702</v>
@@ -26198,16 +26198,16 @@
     </row>
     <row r="287" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B287" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C287" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D287" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E287">
         <v>4033</v>
@@ -26284,16 +26284,16 @@
     </row>
     <row r="288" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B288" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C288" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D288" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -26370,16 +26370,16 @@
     </row>
     <row r="289" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B289" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C289" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D289" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E289">
         <v>74197</v>
@@ -26456,16 +26456,16 @@
     </row>
     <row r="290" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B290" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C290" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D290" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -26542,16 +26542,16 @@
     </row>
     <row r="291" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B291" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C291" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D291" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E291">
         <v>378</v>
@@ -26628,16 +26628,16 @@
     </row>
     <row r="292" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B292" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C292" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D292" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E292">
         <v>1908</v>
@@ -26714,16 +26714,16 @@
     </row>
     <row r="293" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B293" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C293" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D293" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E293">
         <v>4027</v>
@@ -26800,16 +26800,16 @@
     </row>
     <row r="294" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B294" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C294" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D294" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E294">
         <v>1707</v>
@@ -26886,16 +26886,16 @@
     </row>
     <row r="295" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B295" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C295" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D295" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -26972,16 +26972,16 @@
     </row>
     <row r="296" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B296" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C296" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D296" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E296">
         <v>1559</v>
@@ -27058,16 +27058,16 @@
     </row>
     <row r="297" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B297" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C297" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D297" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -27144,16 +27144,16 @@
     </row>
     <row r="298" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B298" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C298" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D298" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E298">
         <v>5592</v>
@@ -27230,16 +27230,16 @@
     </row>
     <row r="299" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B299" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C299" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D299" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -27316,16 +27316,16 @@
     </row>
     <row r="300" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B300" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C300" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D300" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -27402,16 +27402,16 @@
     </row>
     <row r="301" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B301" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C301" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D301" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E301">
         <v>994</v>
@@ -27488,16 +27488,16 @@
     </row>
     <row r="302" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B302" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C302" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D302" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E302">
         <v>103891</v>
@@ -27574,16 +27574,16 @@
     </row>
     <row r="303" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B303" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C303" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D303" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E303">
         <v>18575</v>
@@ -27660,16 +27660,16 @@
     </row>
     <row r="304" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B304" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C304" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D304" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E304">
         <v>69148</v>
@@ -27746,16 +27746,16 @@
     </row>
     <row r="305" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B305" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C305" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D305" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E305">
         <v>360693</v>
@@ -27832,16 +27832,16 @@
     </row>
     <row r="306" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B306" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C306" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D306" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E306">
         <v>312066</v>
@@ -27918,16 +27918,16 @@
     </row>
     <row r="307" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B307" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C307" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D307" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E307">
         <v>174388</v>
@@ -28004,16 +28004,16 @@
     </row>
     <row r="308" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B308" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C308" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D308" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E308">
         <v>486387</v>
@@ -28090,16 +28090,16 @@
     </row>
     <row r="309" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B309" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C309" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D309" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E309">
         <v>35569</v>
@@ -28176,16 +28176,16 @@
     </row>
     <row r="310" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B310" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C310" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D310" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E310">
         <v>165129</v>
@@ -28262,16 +28262,16 @@
     </row>
     <row r="311" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B311" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C311" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D311" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E311">
         <v>37575</v>
@@ -28348,16 +28348,16 @@
     </row>
     <row r="312" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B312" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C312" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D312" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E312">
         <v>376394</v>
@@ -28434,16 +28434,16 @@
     </row>
     <row r="313" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B313" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C313" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D313" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E313">
         <v>572631</v>
@@ -28520,16 +28520,16 @@
     </row>
     <row r="314" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B314" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C314" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D314" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E314">
         <v>114774</v>
@@ -28606,16 +28606,16 @@
     </row>
     <row r="315" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B315" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C315" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D315" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E315">
         <v>0</v>
@@ -28692,16 +28692,16 @@
     </row>
     <row r="316" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B316" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C316" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D316" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E316">
         <v>0</v>
@@ -28778,16 +28778,16 @@
     </row>
     <row r="317" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B317" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C317" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D317" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -28864,16 +28864,16 @@
     </row>
     <row r="318" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B318" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C318" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D318" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E318">
         <v>36191</v>
@@ -28950,16 +28950,16 @@
     </row>
     <row r="319" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B319" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C319" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D319" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E319">
         <v>0</v>
@@ -29036,16 +29036,16 @@
     </row>
     <row r="320" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B320" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C320" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D320" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E320">
         <v>0</v>
@@ -29122,16 +29122,16 @@
     </row>
     <row r="321" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B321" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C321" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D321" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E321">
         <v>119803</v>
@@ -29208,16 +29208,16 @@
     </row>
     <row r="322" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B322" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C322" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D322" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -29294,16 +29294,16 @@
     </row>
     <row r="323" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B323" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C323" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D323" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E323">
         <v>59403</v>
@@ -29380,16 +29380,16 @@
     </row>
     <row r="324" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B324" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C324" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D324" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E324">
         <v>5931</v>
@@ -29466,16 +29466,16 @@
     </row>
     <row r="325" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B325" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C325" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D325" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E325">
         <v>25091</v>
@@ -29552,16 +29552,16 @@
     </row>
     <row r="326" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B326" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C326" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D326" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E326">
         <v>837223</v>
@@ -29638,16 +29638,16 @@
     </row>
     <row r="327" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B327" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C327" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D327" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E327">
         <v>849884</v>
@@ -29724,16 +29724,16 @@
     </row>
     <row r="328" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B328" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C328" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D328" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E328">
         <v>138720</v>
@@ -29810,16 +29810,16 @@
     </row>
     <row r="329" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B329" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C329" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D329" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -29896,16 +29896,16 @@
     </row>
     <row r="330" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B330" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C330" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D330" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E330">
         <v>342934</v>
@@ -29982,16 +29982,16 @@
     </row>
     <row r="331" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B331" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C331" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D331" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -30068,16 +30068,16 @@
     </row>
     <row r="332" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B332" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C332" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D332" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -30154,16 +30154,16 @@
     </row>
     <row r="333" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B333" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C333" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D333" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -30240,16 +30240,16 @@
     </row>
     <row r="334" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B334" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C334" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D334" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -30326,16 +30326,16 @@
     </row>
     <row r="335" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B335" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C335" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D335" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -30412,16 +30412,16 @@
     </row>
     <row r="336" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B336" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C336" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D336" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E336">
         <v>0</v>
@@ -30498,16 +30498,16 @@
     </row>
     <row r="337" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B337" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C337" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D337" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E337">
         <v>0</v>
@@ -30584,16 +30584,16 @@
     </row>
     <row r="338" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B338" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C338" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D338" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E338">
         <v>0</v>
@@ -30670,16 +30670,16 @@
     </row>
     <row r="339" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B339" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C339" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D339" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -30756,16 +30756,16 @@
     </row>
     <row r="340" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B340" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C340" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D340" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -30842,16 +30842,16 @@
     </row>
     <row r="341" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B341" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C341" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D341" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -30928,16 +30928,16 @@
     </row>
     <row r="342" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B342" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C342" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D342" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -31014,16 +31014,16 @@
     </row>
     <row r="343" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B343" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C343" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D343" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -31100,16 +31100,16 @@
     </row>
     <row r="344" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B344" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C344" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D344" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E344">
         <v>0</v>
@@ -31186,16 +31186,16 @@
     </row>
     <row r="345" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B345" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C345" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D345" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -31272,16 +31272,16 @@
     </row>
     <row r="346" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B346" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C346" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D346" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E346">
         <v>0</v>
@@ -31358,16 +31358,16 @@
     </row>
     <row r="347" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B347" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C347" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D347" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E347">
         <v>0</v>
@@ -31444,16 +31444,16 @@
     </row>
     <row r="348" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B348" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C348" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D348" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E348">
         <v>883690</v>
@@ -31530,16 +31530,16 @@
     </row>
     <row r="349" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B349" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C349" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D349" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E349">
         <v>189632</v>
@@ -31616,16 +31616,16 @@
     </row>
     <row r="350" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B350" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C350" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D350" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E350">
         <v>66178</v>
@@ -31702,16 +31702,16 @@
     </row>
     <row r="351" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B351" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C351" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D351" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E351">
         <v>888000</v>
@@ -31788,16 +31788,16 @@
     </row>
     <row r="352" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B352" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C352" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D352" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E352">
         <v>38597</v>
@@ -31874,16 +31874,16 @@
     </row>
     <row r="353" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B353" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C353" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D353" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E353">
         <v>51596</v>
@@ -31960,16 +31960,16 @@
     </row>
     <row r="354" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B354" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C354" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D354" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E354">
         <v>26833</v>
@@ -32046,16 +32046,16 @@
     </row>
     <row r="355" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B355" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C355" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D355" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E355">
         <v>376039</v>
@@ -32132,16 +32132,16 @@
     </row>
     <row r="356" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B356" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C356" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D356" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E356">
         <v>0</v>
@@ -32218,16 +32218,16 @@
     </row>
     <row r="357" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B357" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C357" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D357" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E357">
         <v>6154</v>
@@ -32304,16 +32304,16 @@
     </row>
     <row r="358" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B358" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C358" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D358" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E358">
         <v>411</v>
@@ -32390,16 +32390,16 @@
     </row>
     <row r="359" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B359" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C359" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D359" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E359">
         <v>21692</v>
@@ -32476,16 +32476,16 @@
     </row>
     <row r="360" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B360" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C360" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D360" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E360">
         <v>5954</v>
@@ -32562,16 +32562,16 @@
     </row>
     <row r="361" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B361" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C361" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D361" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E361">
         <v>156095</v>
@@ -32648,16 +32648,16 @@
     </row>
     <row r="362" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B362" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C362" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D362" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E362">
         <v>1526</v>
@@ -32734,16 +32734,16 @@
     </row>
     <row r="363" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B363" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C363" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D363" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E363">
         <v>199</v>
@@ -32820,16 +32820,16 @@
     </row>
     <row r="364" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B364" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C364" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D364" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E364">
         <v>1795</v>
@@ -32906,16 +32906,16 @@
     </row>
     <row r="365" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B365" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C365" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D365" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E365">
         <v>0</v>
@@ -32992,16 +32992,16 @@
     </row>
     <row r="366" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B366" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C366" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D366" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E366">
         <v>246</v>
@@ -33078,16 +33078,16 @@
     </row>
     <row r="367" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B367" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C367" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D367" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E367">
         <v>106832</v>
@@ -33164,16 +33164,16 @@
     </row>
     <row r="368" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B368" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C368" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D368" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E368">
         <v>7785</v>
@@ -33250,16 +33250,16 @@
     </row>
     <row r="369" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B369" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C369" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D369" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E369">
         <v>0</v>
@@ -33336,16 +33336,16 @@
     </row>
     <row r="370" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B370" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C370" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D370" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E370">
         <v>0</v>
@@ -33422,16 +33422,16 @@
     </row>
     <row r="371" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B371" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C371" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D371" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E371">
         <v>325315</v>
@@ -33508,16 +33508,16 @@
     </row>
     <row r="372" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B372" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C372" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D372" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E372">
         <v>0</v>
@@ -33594,16 +33594,16 @@
     </row>
     <row r="373" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B373" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C373" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D373" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E373">
         <v>0</v>
@@ -33680,16 +33680,16 @@
     </row>
     <row r="374" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B374" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C374" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D374" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E374">
         <v>8738</v>
@@ -33766,16 +33766,16 @@
     </row>
     <row r="375" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B375" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C375" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D375" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E375">
         <v>44869</v>
@@ -33852,16 +33852,16 @@
     </row>
     <row r="376" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B376" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C376" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D376" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E376">
         <v>24366</v>
